--- a/medicine/Enfance/Karl_Meersman/Karl_Meersman.xlsx
+++ b/medicine/Enfance/Karl_Meersman/Karl_Meersman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Meersman dit Karl, né le 14 septembre 1961 à Tamise (province de Flandre-Orientale), est un dessinateur de presse et illustrateur belge néerlandophone, vivant à Sint-Niklaas.
 Il est connu pour ses caricatures hebdomadaires dans les magazines populaires Trends et Knack.
-L'art de Meersman a été largement salué dans la presse, dans le monde de l'art et dans la politique. Il a attiré l'attention internationale lorsque son travail a été exposé au consulat belge à New York, en 2006–2007[1].
+L'art de Meersman a été largement salué dans la presse, dans le monde de l'art et dans la politique. Il a attiré l'attention internationale lorsque son travail a été exposé au consulat belge à New York, en 2006–2007.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl Meersman naît le 14 septembre 1961 à Tamise[2]. Au départ, il est principalement occupé par des travaux dans le secteur de la publicité. Il est embauché comme caricaturiste par le magazine Trends en 1987 après avoir été remarqué en train de dessiner des visiteurs dans un magasin de meubles, et depuis, il dessine des caricatures politiques pour le magazine hebdomadaire. Le magazine économique qualifie le dessinateur de « bouffon de la société socio-économique ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Meersman naît le 14 septembre 1961 à Tamise. Au départ, il est principalement occupé par des travaux dans le secteur de la publicité. Il est embauché comme caricaturiste par le magazine Trends en 1987 après avoir été remarqué en train de dessiner des visiteurs dans un magasin de meubles, et depuis, il dessine des caricatures politiques pour le magazine hebdomadaire. Le magazine économique qualifie le dessinateur de « bouffon de la société socio-économique ».
 En 2002, il devient l'illustrateur permanent de Focus Knack, pour lequel il dessine la plupart du temps des caricatures de personnalités du showbiz.
-Comme ses plus grandes influences, Karl Meersman cite Egon Schiele et les estampes satiriques dans la lignée de Félicien Rops, Toulouse-Lautrec et Honoré Daumier[3]. Son style est décrit comme réaliste avec un sens aigu du détail[4].
-Outre les caricatures et les dessins éditoriaux, Karl Meersman produit également des affiches, des timbres, des peintures et des aménagements intérieurs[3]. Dans le passé, il a également produit des illustrations de livres et des livres pour enfants[2].
-Il est également membre du collectif et du site web The Cartoonist, réunissant des dessinateurs belges de presse, créé par Marec, où ils mettent leurs travaux à la disposition du public[2].
+Comme ses plus grandes influences, Karl Meersman cite Egon Schiele et les estampes satiriques dans la lignée de Félicien Rops, Toulouse-Lautrec et Honoré Daumier. Son style est décrit comme réaliste avec un sens aigu du détail.
+Outre les caricatures et les dessins éditoriaux, Karl Meersman produit également des affiches, des timbres, des peintures et des aménagements intérieurs. Dans le passé, il a également produit des illustrations de livres et des livres pour enfants.
+Il est également membre du collectif et du site web The Cartoonist, réunissant des dessinateurs belges de presse, créé par Marec, où ils mettent leurs travaux à la disposition du public.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est marié à l'ancienne journaliste et présentatrice de télévision de la VRT Lies Martens (nl)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié à l'ancienne journaliste et présentatrice de télévision de la VRT Lies Martens (nl).
 	Caricatures par Karl Meersman
 			Caricature de Nicolas Sarkozy et Carla Bruni (2008)
 			Caricature de Matt Damon (2007)
@@ -586,16 +602,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Caricature éditoriale
-Karl Meersman : VIPS TOO : very important paintings too, Roularta Books, 2010  (ISBN 978-90-8679-358-7)
+          <t>Caricature éditoriale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Karl Meersman : VIPS TOO : very important paintings too, Roularta Books, 2010  (ISBN 978-90-8679-358-7)
 Karl Meersman : VIPS : very important paintings, Roularta, 2007  (ISBN 978-90-5466-512-0)
 Hugo Vandamme and Karel Cambien, illustré par Karl Meersman. Wat baten kaars en bril : management in spreekwoorden : wat je op school niet leert. Roularta, 2007  (ISBN 978-90-5466-995-1)
 Trends (2000). Illustré par Karl Meersman. België : tekenend en getekend 1990–2000 : Karl Meersman tekent tien jaar België / La Belgique traits pour traits 1990–2000 : Karl Meersman croque dix belges années. Roularta  (ISBN 90-5466-478-9)
 Hendrik Seghers, (1997). Illustré par Karl Meersman. De nieuwe collaboratie : een ondernemer in het verzet. Davidsfonds, 1997  (ISBN 90-6152-655-8)
 Trends (1993). Illustré par Karl Meersman. België in 30 hoofdstukken : over economie en politiek in de jaren '90. Roularta  (ISBN 90-5466-073-2)
-Mark Uytterhoeven (1988). Illustré par Karl Meersman. Wat een jaar, beste spotliefhebber! : de hoogtepunten van het sportjaar 1988. Roularta  (ISBN 90-72411-12-9)
-Littérature d'enfance et de jeunesse
-Karl Meersman (2002). Een melkje wolk. Afijn  (ISBN 90-5933-017-X)
+Mark Uytterhoeven (1988). Illustré par Karl Meersman. Wat een jaar, beste spotliefhebber! : de hoogtepunten van het sportjaar 1988. Roularta  (ISBN 90-72411-12-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karl_Meersman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karl_Meersman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Karl Meersman (2002). Een melkje wolk. Afijn  (ISBN 90-5933-017-X)
 Kolet, Janssen (2000). Illustré par Karl Meersman. Wisselkind : romain. Davidsfonds  (ISBN 90-6565-935-8)
 Linders, Jac (1999). Illustré par Karl Meersman. De derde kans. Davidsfonds  (ISBN 90-6565-922-6)
 De Maeyer, Gregie (1998). Illustré par Karl Meersman. De koningste koning. Davidsfonds  (ISBN 90-6565-878-5)
